--- a/Datos/Datos.xlsx
+++ b/Datos/Datos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Narveider\Downloads\RobotOptimus (1)\RobotOptimus\cl.bcs.optimus\Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rnunez_ext\git\SeleniumRobot\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="43">
   <si>
     <t>rut</t>
   </si>
@@ -113,12 +113,6 @@
     <t>785,47</t>
   </si>
   <si>
-    <t>690,56</t>
-  </si>
-  <si>
-    <t>695,56</t>
-  </si>
-  <si>
     <t>1,1041</t>
   </si>
   <si>
@@ -156,6 +150,9 @@
   </si>
   <si>
     <t>operacion</t>
+  </si>
+  <si>
+    <t>640,56</t>
   </si>
 </sst>
 </file>
@@ -477,7 +474,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="I6" activeCellId="2" sqref="I3 I7 I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,12 +531,12 @@
         <v>21</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -563,7 +560,7 @@
         <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>18</v>
@@ -575,12 +572,12 @@
         <v>5</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -604,7 +601,7 @@
         <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
@@ -616,12 +613,12 @@
         <v>5</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -654,15 +651,15 @@
         <v>20</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -695,15 +692,15 @@
         <v>20</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -727,7 +724,7 @@
         <v>23</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
@@ -739,12 +736,12 @@
         <v>5</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -768,7 +765,7 @@
         <v>24</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
@@ -780,12 +777,12 @@
         <v>5</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -818,15 +815,15 @@
         <v>20</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -859,15 +856,15 @@
         <v>20</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -903,12 +900,12 @@
         <v>5</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -944,12 +941,12 @@
         <v>5</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
@@ -985,12 +982,12 @@
         <v>5</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
@@ -1026,7 +1023,7 @@
         <v>5</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Datos/Datos.xlsx
+++ b/Datos/Datos.xlsx
@@ -98,9 +98,6 @@
     <t>1000</t>
   </si>
   <si>
-    <t>2000</t>
-  </si>
-  <si>
     <t>5000</t>
   </si>
   <si>
@@ -153,14 +150,25 @@
   </si>
   <si>
     <t>640,56</t>
+  </si>
+  <si>
+    <t>710</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -188,9 +196,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" activeCellId="2" sqref="I3 I7 I6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,12 +541,12 @@
         <v>21</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -560,7 +570,7 @@
         <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>18</v>
@@ -572,12 +582,12 @@
         <v>5</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -598,7 +608,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>42</v>
@@ -613,12 +623,12 @@
         <v>5</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -639,7 +649,7 @@
         <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>5</v>
@@ -651,15 +661,15 @@
         <v>20</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -680,7 +690,7 @@
         <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>5</v>
@@ -692,15 +702,15 @@
         <v>20</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -720,11 +730,11 @@
       <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
@@ -736,12 +746,12 @@
         <v>5</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -762,7 +772,7 @@
         <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>42</v>
@@ -777,12 +787,12 @@
         <v>5</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -803,9 +813,9 @@
         <v>14</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -815,15 +825,15 @@
         <v>20</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -844,7 +854,7 @@
         <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>5</v>
@@ -856,15 +866,15 @@
         <v>20</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -885,11 +895,11 @@
         <v>16</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="J10" s="1" t="s">
         <v>18</v>
       </c>
@@ -900,12 +910,12 @@
         <v>5</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -929,7 +939,7 @@
         <v>23</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>18</v>
@@ -941,12 +951,12 @@
         <v>5</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
@@ -960,18 +970,18 @@
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="J12" s="1" t="s">
         <v>18</v>
       </c>
@@ -982,12 +992,12 @@
         <v>5</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
@@ -1011,7 +1021,7 @@
         <v>23</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>18</v>
@@ -1023,7 +1033,7 @@
         <v>5</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Datos/Datos.xlsx
+++ b/Datos/Datos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="46">
   <si>
     <t>rut</t>
   </si>
@@ -153,6 +153,15 @@
   </si>
   <si>
     <t>710</t>
+  </si>
+  <si>
+    <t>cuentaInversion</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -481,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,9 +510,12 @@
     <col min="10" max="10" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -543,8 +555,11 @@
       <c r="M1" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -584,8 +599,11 @@
       <c r="M2" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -625,8 +643,11 @@
       <c r="M3" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -666,8 +687,11 @@
       <c r="M4" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -707,8 +731,11 @@
       <c r="M5" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -748,8 +775,11 @@
       <c r="M6" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -789,8 +819,11 @@
       <c r="M7" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -830,8 +863,11 @@
       <c r="M8" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -871,8 +907,11 @@
       <c r="M9" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -912,8 +951,11 @@
       <c r="M10" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -953,8 +995,11 @@
       <c r="M11" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -994,8 +1039,11 @@
       <c r="M12" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -1034,6 +1082,9 @@
       </c>
       <c r="M13" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
